--- a/src/main/resources/data1.xlsx
+++ b/src/main/resources/data1.xlsx
@@ -32,12 +32,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>idCard</t>
   </si>
   <si>
     <t>subsidy</t>
@@ -1045,7 +1048,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1066,31 +1069,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" spans="1:10">
@@ -1098,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>1500</v>
@@ -1116,13 +1119,13 @@
         <v>13312345678</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
